--- a/data/hotels_by_city/Houston/Houston_shard_233.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_233.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107711-Reviews-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Willowbrook-HWY-249.h202782.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530894635402&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=ce221c90-c6e0-4b77-9875-8eeb5181d1a0&amp;mctc=9&amp;exp_dp=56.99&amp;exp_ts=1530894641649&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,981 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r577238232-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107711</t>
+  </si>
+  <si>
+    <t>577238232</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Not happy</t>
+  </si>
+  <si>
+    <t>Diana charged me $70 extra plus tax for something Austin at the Champions Center location was offering for free..I probably won't be back.. instead of customer satisfaction they want more money it seems.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Diana charged me $70 extra plus tax for something Austin at the Champions Center location was offering for free..I probably won't be back.. instead of customer satisfaction they want more money it seems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r559577358-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559577358</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Review for willowbrook extendedstay</t>
+  </si>
+  <si>
+    <t>Great deal The best in town for the price.The front desk is very nice and attentive.Very quite no one bothers you.everyone I have Had to deal with is pleasant and goes out of there way to make u happyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Great deal The best in town for the price.The front desk is very nice and attentive.Very quite no one bothers you.everyone I have Had to deal with is pleasant and goes out of there way to make u happyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r555157455-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555157455</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Very clean. Very friendly staff. Plenty of space in the room so you don't feel cramped. They had security at the entrance which was very comforting knowing I didn't have to worry about my car. Grabbed a cup of coffee on my way out and it was also deliciousMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Very clean. Very friendly staff. Plenty of space in the room so you don't feel cramped. They had security at the entrance which was very comforting knowing I didn't have to worry about my car. Grabbed a cup of coffee on my way out and it was also deliciousMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r543626579-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543626579</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Drugs....</t>
+  </si>
+  <si>
+    <t>The hotel room smelled foul. There was a strong odor of marijuana throughout the hallways. Partying all hours. I was staying with my children so I had to go find another hotel bc the front desk didn’t seem to care or get any type of resolution. I will never go back there nor recommend it. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>The hotel room smelled foul. There was a strong odor of marijuana throughout the hallways. Partying all hours. I was staying with my children so I had to go find another hotel bc the front desk didn’t seem to care or get any type of resolution. I will never go back there nor recommend it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r536397181-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536397181</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>I've had better vists at this location.</t>
+  </si>
+  <si>
+    <t>Given disabled room. No counter space in bathroom. Hair dryer broke falling off counter. Bad lighting made it difficult to apply make-up in room using table. My room was never cleaned the entire time I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Given disabled room. No counter space in bathroom. Hair dryer broke falling off counter. Bad lighting made it difficult to apply make-up in room using table. My room was never cleaned the entire time I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r499004472-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499004472</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Great Quality</t>
+  </si>
+  <si>
+    <t>Great Service the rooms are very big and spacious no place like home the breakfast is not very big but the rooms are equipped with kitchens appliance the guest was very respectful no loud noise or musicMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Great Service the rooms are very big and spacious no place like home the breakfast is not very big but the rooms are equipped with kitchens appliance the guest was very respectful no loud noise or musicMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r487728058-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487728058</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Great customer service. Quiet and Clean.</t>
+  </si>
+  <si>
+    <t>Everyone at this Extended stay made feel very comfortable and very courteous. Rooms are quiet, internet service is good and a lot of good restaurants within 1 to 2 miles from the hotel.  Check-in and check-out is always quick.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Everyone at this Extended stay made feel very comfortable and very courteous. Rooms are quiet, internet service is good and a lot of good restaurants within 1 to 2 miles from the hotel.  Check-in and check-out is always quick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r484001491-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484001491</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Nice and cozy</t>
+  </si>
+  <si>
+    <t>The ladies at the service desk were super friendly and helpful. they made my stay extra special. the room was super clean and had everything i needed to feel at home. can't wait to go back! the price was excellent for what I got in return.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2017</t>
+  </si>
+  <si>
+    <t>The ladies at the service desk were super friendly and helpful. they made my stay extra special. the room was super clean and had everything i needed to feel at home. can't wait to go back! the price was excellent for what I got in return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r482326256-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482326256</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Nice and Clean hotel in a safe neighborhood</t>
+  </si>
+  <si>
+    <t>Room was clean. Lighting in the room was very well done. Hotel Lobby and the hotel grounds are all well kept. Coffee was good and breakfast bar was convenient. Hotel is located close to shopping area. Most importantly, Receptionist staff were friendly and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean. Lighting in the room was very well done. Hotel Lobby and the hotel grounds are all well kept. Coffee was good and breakfast bar was convenient. Hotel is located close to shopping area. Most importantly, Receptionist staff were friendly and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r438637485-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438637485</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Spend more - go somewhere else</t>
+  </si>
+  <si>
+    <t>Staying for week and not feeling it at all. The front desk people - when there - are actually very nice. (Mad respect to those of you who work here!) Neighbor hotel guests slamming doors all night long and cooking (burning a lot) through the night - talking 1, 2, 3, 4, 5 am - every single night. Woke up multiple times through night thinking place was on fire. Ended up moving rooms to get away from one group of "night chefs." Had to go to work early 4 am one day and there are people wandering halls and parking lot - mildly scary. And, of course, what makes the stay here the best?? A freakingly fast and amusingly aquatic cockroach in the bathroom in the middle of the night. This is a do-it-yourself joint - absolutely no hotel amenities at all. Hot water for shower? Haha! Think again- you have to move rooms to get hot water per the front desk. Tried to open window (per stovetop instructions - and we only opened to get some air from the disgusting neighbor concoction odors) and the entire pane started to fall out of the frame. This place is gross, gross, gross. Two bonuses - the gentleman's club and Cindie's, both within walking distance - for those that enjoy that (no judgments). Willowbrook mall and saltgrass are nice distractions to wile away the time while you wait for sleepiness to hit....Staying for week and not feeling it at all. The front desk people - when there - are actually very nice. (Mad respect to those of you who work here!) Neighbor hotel guests slamming doors all night long and cooking (burning a lot) through the night - talking 1, 2, 3, 4, 5 am - every single night. Woke up multiple times through night thinking place was on fire. Ended up moving rooms to get away from one group of "night chefs." Had to go to work early 4 am one day and there are people wandering halls and parking lot - mildly scary. And, of course, what makes the stay here the best?? A freakingly fast and amusingly aquatic cockroach in the bathroom in the middle of the night. This is a do-it-yourself joint - absolutely no hotel amenities at all. Hot water for shower? Haha! Think again- you have to move rooms to get hot water per the front desk. Tried to open window (per stovetop instructions - and we only opened to get some air from the disgusting neighbor concoction odors) and the entire pane started to fall out of the frame. This place is gross, gross, gross. Two bonuses - the gentleman's club and Cindie's, both within walking distance - for those that enjoy that (no judgments). Willowbrook mall and saltgrass are nice distractions to wile away the time while you wait for sleepiness to hit. ESA - No. No.no. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Staying for week and not feeling it at all. The front desk people - when there - are actually very nice. (Mad respect to those of you who work here!) Neighbor hotel guests slamming doors all night long and cooking (burning a lot) through the night - talking 1, 2, 3, 4, 5 am - every single night. Woke up multiple times through night thinking place was on fire. Ended up moving rooms to get away from one group of "night chefs." Had to go to work early 4 am one day and there are people wandering halls and parking lot - mildly scary. And, of course, what makes the stay here the best?? A freakingly fast and amusingly aquatic cockroach in the bathroom in the middle of the night. This is a do-it-yourself joint - absolutely no hotel amenities at all. Hot water for shower? Haha! Think again- you have to move rooms to get hot water per the front desk. Tried to open window (per stovetop instructions - and we only opened to get some air from the disgusting neighbor concoction odors) and the entire pane started to fall out of the frame. This place is gross, gross, gross. Two bonuses - the gentleman's club and Cindie's, both within walking distance - for those that enjoy that (no judgments). Willowbrook mall and saltgrass are nice distractions to wile away the time while you wait for sleepiness to hit....Staying for week and not feeling it at all. The front desk people - when there - are actually very nice. (Mad respect to those of you who work here!) Neighbor hotel guests slamming doors all night long and cooking (burning a lot) through the night - talking 1, 2, 3, 4, 5 am - every single night. Woke up multiple times through night thinking place was on fire. Ended up moving rooms to get away from one group of "night chefs." Had to go to work early 4 am one day and there are people wandering halls and parking lot - mildly scary. And, of course, what makes the stay here the best?? A freakingly fast and amusingly aquatic cockroach in the bathroom in the middle of the night. This is a do-it-yourself joint - absolutely no hotel amenities at all. Hot water for shower? Haha! Think again- you have to move rooms to get hot water per the front desk. Tried to open window (per stovetop instructions - and we only opened to get some air from the disgusting neighbor concoction odors) and the entire pane started to fall out of the frame. This place is gross, gross, gross. Two bonuses - the gentleman's club and Cindie's, both within walking distance - for those that enjoy that (no judgments). Willowbrook mall and saltgrass are nice distractions to wile away the time while you wait for sleepiness to hit. ESA - No. No.no. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r430726326-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430726326</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Overnight.... regretted this choice</t>
+  </si>
+  <si>
+    <t>Sketchy people in the front and lobby. I have never felt uneasy about staying any where till now... no utensils or plates in kitchen.  Definitely not a queen bed, maybe a full. The bathroom is disgusting.  Stay away</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r425701248-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425701248</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Leaking Toilet and Dead Roach</t>
+  </si>
+  <si>
+    <t>I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night...I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night prior knocked me off my game a little bit. I would NOT recommend staying here. If you do, make sure to give your room a thorough check before you lay down and rest your head.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night...I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night prior knocked me off my game a little bit. I would NOT recommend staying here. If you do, make sure to give your room a thorough check before you lay down and rest your head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r333371812-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333371812</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>It was decent</t>
+  </si>
+  <si>
+    <t>I wanna say this hotel is mostly used for a type of family get away but a little warning. The picture is 100% accurate but what you wont see is its all worn out cabinets and desk are scratched up and dented, the plug in outlets came out when i tried to pull out my recharger. The hotel it self is kinda small because they try do so much room inside the hallways and room are small i walked into my hotel room is said" Wow its smaller then my apartment room" the closet doesn't have door its covered by curtains. They said this was a non-smoke hotel i went inside the stairs all i smelled was smoke it was horrible. I would not recommend this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>I wanna say this hotel is mostly used for a type of family get away but a little warning. The picture is 100% accurate but what you wont see is its all worn out cabinets and desk are scratched up and dented, the plug in outlets came out when i tried to pull out my recharger. The hotel it self is kinda small because they try do so much room inside the hallways and room are small i walked into my hotel room is said" Wow its smaller then my apartment room" the closet doesn't have door its covered by curtains. They said this was a non-smoke hotel i went inside the stairs all i smelled was smoke it was horrible. I would not recommend this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r278337168-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278337168</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel ever </t>
+  </si>
+  <si>
+    <t>I checked in around 5 p.m. Was told the room would be 69$ a night which I thought was fine come to find out when they emailed me my receipt that they changed me 114$ a night. Not cool at all and theses rooms aren't even close to being worth that. Then it was like pulling teeth to get a manager to fix it. Breakfast is terrible security sucks and nobody there knows or cares about what is going on. Stay away! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>I checked in around 5 p.m. Was told the room would be 69$ a night which I thought was fine come to find out when they emailed me my receipt that they changed me 114$ a night. Not cool at all and theses rooms aren't even close to being worth that. Then it was like pulling teeth to get a manager to fix it. Breakfast is terrible security sucks and nobody there knows or cares about what is going on. Stay away! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r251714097-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251714097</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Fleas!!!!</t>
+  </si>
+  <si>
+    <t>The stairwell smells like old feet and the third floor smells like smoke everywhere. The room I stayed in has fleas. I woke up with ten bites on my legs and seen a couple fleas. Other than that its a decent place.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r240087013-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240087013</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Home Away From Home!</t>
+  </si>
+  <si>
+    <t>I live in the area (Houston) but my husband, 2 dogs, and I had to find a place to stay while we were having some remodeling and construction completed on our home. I travel frequently as part of my job and I can honestly say that staying here felt like a home away from home. The accommodations were nice and the environment was pleasant enough, but what really made the difference was the staff. The people working for this location went above and beyond to make sure not only my husband and I were comfortable, but that my dogs (my babies) were comfortable too. I have to say that specifically the front desk personnel, Xionara and Diana, went out of their way to ensure my happiness, safety, and just make the overall transition from home to hotel a very enjoyable one. I would most definitely recommend this extended stay america- willowbrook - HWY 249 - Houston, to any of my friends and family. In fact, most of my family lives out of town and will be coming to Houston for the holidays. They already plan to stay here. So thanks so much to everyone involved in making my family's stay a great one!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>I live in the area (Houston) but my husband, 2 dogs, and I had to find a place to stay while we were having some remodeling and construction completed on our home. I travel frequently as part of my job and I can honestly say that staying here felt like a home away from home. The accommodations were nice and the environment was pleasant enough, but what really made the difference was the staff. The people working for this location went above and beyond to make sure not only my husband and I were comfortable, but that my dogs (my babies) were comfortable too. I have to say that specifically the front desk personnel, Xionara and Diana, went out of their way to ensure my happiness, safety, and just make the overall transition from home to hotel a very enjoyable one. I would most definitely recommend this extended stay america- willowbrook - HWY 249 - Houston, to any of my friends and family. In fact, most of my family lives out of town and will be coming to Houston for the holidays. They already plan to stay here. So thanks so much to everyone involved in making my family's stay a great one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r231019198-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231019198</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Quiet Great staff</t>
+  </si>
+  <si>
+    <t>The Staff At this motel are as good as they get always smiles from management too housekeeping.They have security at night so no probs in parking lot.They are far enough off 249 so you don't hear traffic at night and close enough too easy acess.Everything in room worked too prefection. All and All  they made me feel like part of their family and that helps when you are away from home for weeks at a time  thanks everyone at extended stay Willowbrook.       James Spicer</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r226542520-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226542520</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Good staff but I wouldn't want to stay here again</t>
+  </si>
+  <si>
+    <t>Staff was very helpful. Room seemed very tired like (10 years old) and i found cock roach in my tub.  Maid staff was very friendly, helpful, this place needs an upgrade.  I won't be staying here again. thank you</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r200133324-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200133324</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>A Surprisingly Pleasant Extended Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 7 nights while on business. Throughout the week, the consistently courteous desk clerks made me feel right at home. Registering and checkout were a snap. On-premises laundry was a plus. Among kitchen amenities at room 312 were a fridge, a 2-burner electric stove, a toaster, a microwave, a coffee maker, a kitchen sink, and dinnerware for two. The bathroom had two sets of bath towels and facecloths, complimentary soaps, and a tub/shower. Among other amenities were an ironing board and iron, an alarm clock, a desk phone, a writing desk, and a deep-cushion chair. The king bed was comfortable enough. Bathroom surfaces and bed linens seemed clean. Heating, cooling, TV, microwave, and Wi-Fi all worked reliably and well. In general, the room was quiet except for a dog barking constantly in the room next-door. The parking lot was brightly lighted. The grab and go breakfasts were modest but welcome. I’d definitely consider another stay here if the need ever arose.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 7 nights while on business. Throughout the week, the consistently courteous desk clerks made me feel right at home. Registering and checkout were a snap. On-premises laundry was a plus. Among kitchen amenities at room 312 were a fridge, a 2-burner electric stove, a toaster, a microwave, a coffee maker, a kitchen sink, and dinnerware for two. The bathroom had two sets of bath towels and facecloths, complimentary soaps, and a tub/shower. Among other amenities were an ironing board and iron, an alarm clock, a desk phone, a writing desk, and a deep-cushion chair. The king bed was comfortable enough. Bathroom surfaces and bed linens seemed clean. Heating, cooling, TV, microwave, and Wi-Fi all worked reliably and well. In general, the room was quiet except for a dog barking constantly in the room next-door. The parking lot was brightly lighted. The grab and go breakfasts were modest but welcome. I’d definitely consider another stay here if the need ever arose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r195058482-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195058482</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>It's a Bed</t>
+  </si>
+  <si>
+    <t>A/C, TV, and toilet were broken in our first room.  Rooms WERE clean.  Bed not very comfortable.  My kids ended up sleeping on the floor because they had not double, non-smoking rooms (even though that's what we paid for) and they had no roll away beds.  They coffee pots for the continental breakfast all suddenly broke on the same morning.  Really?  Hard to find.  Harder to navigate around.  Unhelpful staff.  Had to ASK for everything that should have just been in the room.  If you just need a place to sleep and nothing more, this place would be fine, I guess.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>A/C, TV, and toilet were broken in our first room.  Rooms WERE clean.  Bed not very comfortable.  My kids ended up sleeping on the floor because they had not double, non-smoking rooms (even though that's what we paid for) and they had no roll away beds.  They coffee pots for the continental breakfast all suddenly broke on the same morning.  Really?  Hard to find.  Harder to navigate around.  Unhelpful staff.  Had to ASK for everything that should have just been in the room.  If you just need a place to sleep and nothing more, this place would be fine, I guess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r194506923-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194506923</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Located on a service road adjoining Hwy 249, it's situated 15 minutes from the Premium outlets. Rather noisy laying off the Fwy but certainly convenient to a mall, steakhouse, bar, cinema and the like. Self contained kitchenette with basic accompaniments, clean linen, double bed, dated and worn, but certainly functional. Carry your cell/mobile with you as it seems that one is unable to make a call overseas without booking a call or without operator assistance. Again, functional and serves a purpose for the traveller.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Located on a service road adjoining Hwy 249, it's situated 15 minutes from the Premium outlets. Rather noisy laying off the Fwy but certainly convenient to a mall, steakhouse, bar, cinema and the like. Self contained kitchenette with basic accompaniments, clean linen, double bed, dated and worn, but certainly functional. Carry your cell/mobile with you as it seems that one is unable to make a call overseas without booking a call or without operator assistance. Again, functional and serves a purpose for the traveller.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r173104525-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173104525</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Excellent room for the price</t>
+  </si>
+  <si>
+    <t>We stayed here in August 2013. Staffer named jivonnie was one of the friendliest guys and very helpful. Room was clean and spacious. We booked over Priceline and got the room on a Friday night for $40. Close to restaurants and fun stuff to do. Free grab and go breakfast. We got a king room originally but asked for one with two beds and the request was accommodated immediately. Very pleased :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded August 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here in August 2013. Staffer named jivonnie was one of the friendliest guys and very helpful. Room was clean and spacious. We booked over Priceline and got the room on a Friday night for $40. Close to restaurants and fun stuff to do. Free grab and go breakfast. We got a king room originally but asked for one with two beds and the request was accommodated immediately. Very pleased :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r172901836-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172901836</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Splendiferous Hotel</t>
+  </si>
+  <si>
+    <t>My stay at the Extended Stay America was by far the best stay out of all the other hotels I have ever stayed in. The staff was magnificently friendly and helpfull. They would greet me every single day and would ask me how my stay was going and if they could do anything to make it better. In the morning I was greeted my a nice lady named Daisy who would help me with directions to where I needed to go, in the evening I was greeting by a gentleman named Jovannie who was incredibly nice and had a prowess of costumer service skills. Jovannie even helped me fix my computer when it was having problems, He is a great employee and I personally believe both Daisy and Jovannie should get promotions! The room was clean, the CLC rate was low, the internet was great! Overall I will stay in the hotel whenever I come to Houston again. The only thing I believe the hotel should upgrade to are nonstick pots and pans because when I tried to make food, almost everything would stick to the bottom, and to get their water filters changed for the faucets. Ohh, also they should get a petting zoo. I like animals. Thank you for your time and patience. Have a great day!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>My stay at the Extended Stay America was by far the best stay out of all the other hotels I have ever stayed in. The staff was magnificently friendly and helpfull. They would greet me every single day and would ask me how my stay was going and if they could do anything to make it better. In the morning I was greeted my a nice lady named Daisy who would help me with directions to where I needed to go, in the evening I was greeting by a gentleman named Jovannie who was incredibly nice and had a prowess of costumer service skills. Jovannie even helped me fix my computer when it was having problems, He is a great employee and I personally believe both Daisy and Jovannie should get promotions! The room was clean, the CLC rate was low, the internet was great! Overall I will stay in the hotel whenever I come to Houston again. The only thing I believe the hotel should upgrade to are nonstick pots and pans because when I tried to make food, almost everything would stick to the bottom, and to get their water filters changed for the faucets. Ohh, also they should get a petting zoo. I like animals. Thank you for your time and patience. Have a great day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r167870931-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167870931</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>DIRTY!!!!!!</t>
+  </si>
+  <si>
+    <t>Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we...Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we could not sleep our last night in our room. When we reported the issue, the front desk staff brushed off the comment as though it was not a big deal. So as a result, I would NEVER recommend this hotel to anyone. I've stayed at other extended stay locations and did not have a single issue. But this stay has to be the worst experience I've had at a hotel in my entire life. For the rate of this place I expect a much better service (such as changing my sheets regularly). fyi: the breakfast is not actual breakfast. Just a shelf with granola bars, muffins and coffee. MoreShow less</t>
+  </si>
+  <si>
+    <t>Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we...Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we could not sleep our last night in our room. When we reported the issue, the front desk staff brushed off the comment as though it was not a big deal. So as a result, I would NEVER recommend this hotel to anyone. I've stayed at other extended stay locations and did not have a single issue. But this stay has to be the worst experience I've had at a hotel in my entire life. For the rate of this place I expect a much better service (such as changing my sheets regularly). fyi: the breakfast is not actual breakfast. Just a shelf with granola bars, muffins and coffee. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r156320157-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156320157</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>We stayed for four nights in the Willowbrook 249 Hotel. It is wonderful. Room was clean , quiet and cool. Close to all the places we needed to be. Very convenient. Friendly staff made us feel right at home. We were told upon arriving if we needed anything just ask. We did and were very happy with the response. We will be staying here again soon when we visit our children and grand kids. Thank you for a delightful stay. We highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>We stayed for four nights in the Willowbrook 249 Hotel. It is wonderful. Room was clean , quiet and cool. Close to all the places we needed to be. Very convenient. Friendly staff made us feel right at home. We were told upon arriving if we needed anything just ask. We did and were very happy with the response. We will be staying here again soon when we visit our children and grand kids. Thank you for a delightful stay. We highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r154719326-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154719326</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Daisy is very kind and friendly.</t>
+  </si>
+  <si>
+    <t>I stay here 3 months now for a business trip.Here is not far away for my office and also near the mall so it's very convenient.  Daisy is always very kind and friendly.When I go to front desk to get my postal parcle, she is very patient with me and help me get the package very quickly.Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded March 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2013</t>
+  </si>
+  <si>
+    <t>I stay here 3 months now for a business trip.Here is not far away for my office and also near the mall so it's very convenient.  Daisy is always very kind and friendly.When I go to front desk to get my postal parcle, she is very patient with me and help me get the package very quickly.Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r153383961-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153383961</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>The staff is always smiling and friendly.</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel for about 4 months because of work. The staff is always friendly at check in and the rooms always clean. Diana at the front desk is always helpful with keeping up with my reservations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel for about 4 months because of work. The staff is always friendly at check in and the rooms always clean. Diana at the front desk is always helpful with keeping up with my reservations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r152584255-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152584255</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>hair in freezer-appeared to be a pubic one!!!</t>
+  </si>
+  <si>
+    <t>It was not a good experience for me.  The first room had visible mold embedded in the curtains &amp; sheet rock damage above the molded curtains.  after complaining to the front desk, I was moved to a second room where I discovered short black curled hairs in the freezer!  It was absolutely discussing.  It was All Star weekend, so the hotel was full.  I went to the store to purchase cleaning supplies, so that I could stay there since no other rooms were available.  Also, the refrigerator was warm &amp; the frost free freezer was frozen w ice?  I finally figured that if I open the freezer door 1/2 way it would cool/freeze my groceries.  Daisy, the front desk clerk was great &amp; she really tried to accommodate me, but bring cleaning supplies!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>It was not a good experience for me.  The first room had visible mold embedded in the curtains &amp; sheet rock damage above the molded curtains.  after complaining to the front desk, I was moved to a second room where I discovered short black curled hairs in the freezer!  It was absolutely discussing.  It was All Star weekend, so the hotel was full.  I went to the store to purchase cleaning supplies, so that I could stay there since no other rooms were available.  Also, the refrigerator was warm &amp; the frost free freezer was frozen w ice?  I finally figured that if I open the freezer door 1/2 way it would cool/freeze my groceries.  Daisy, the front desk clerk was great &amp; she really tried to accommodate me, but bring cleaning supplies!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r152220035-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152220035</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Not real bad hotel.. Service is great the ladies have been a huge help in getting me things I need.  Rooms overall quality not bad just a little out dated.  Laundry room in hotel but no pool or fitness center.  Great location to mall and other shops.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Not real bad hotel.. Service is great the ladies have been a huge help in getting me things I need.  Rooms overall quality not bad just a little out dated.  Laundry room in hotel but no pool or fitness center.  Great location to mall and other shops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r147812691-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147812691</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Business in houston</t>
+  </si>
+  <si>
+    <t>Great service at check in with Daisy. Daisy was very helpful. She is a very beautiful woman. Bed was very comfortable. Check-in was efficient and fast. I love the grab and go breakfast, I was in a hurry, so it was very convienent.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Great service at check in with Daisy. Daisy was very helpful. She is a very beautiful woman. Bed was very comfortable. Check-in was efficient and fast. I love the grab and go breakfast, I was in a hurry, so it was very convienent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r145554594-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145554594</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Great Place, quiet spot yet close to everything</t>
+  </si>
+  <si>
+    <t>I stayed at this place cause I saw it was close to the mall among other attractions, yet it seemed to have a quiet, cozy look to it. This place has a nice comfortable home feel with an executive touch. The service was nice and helpful something you don't find at many place nowadays. When I needed any reccomendations or directions to any restaurants or stores, they seemed to know everything and even gave me some specials of the local restaurants. My overall experience was very satisfying and I plan to stay there next time I'm in Houston, I would greatly reccomend anyone visiting the are to check this place out.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this place cause I saw it was close to the mall among other attractions, yet it seemed to have a quiet, cozy look to it. This place has a nice comfortable home feel with an executive touch. The service was nice and helpful something you don't find at many place nowadays. When I needed any reccomendations or directions to any restaurants or stores, they seemed to know everything and even gave me some specials of the local restaurants. My overall experience was very satisfying and I plan to stay there next time I'm in Houston, I would greatly reccomend anyone visiting the are to check this place out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r145038688-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145038688</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>One of the best hotels</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely one of the best hotels I have stayed at, whether it is for a few short days or up to weeks at a time. From the moment I walked in I could tell it was going to be a good experience, the front desk clerks were very helpful with giving me information about the area and everything I needed to know about the rooms, which made my stay there even more great. The area is great for people staying a day to staying a month, since there is so many restaurants near by to eat out at or order in as well as a Walmart near by to do some grocery shopping. The rooms are very clean, every time you walk in you can just smell the good aroma in the air. Each room is equipped with a fully equipped kitchen, so you can do all your cooking in your room if you don't feel like going out, also has a TV with a remote, working air conditioning, and iron and ironing board. The beds are really comfortable, got a good night sleep on them feeling rejuvenated in the morning every time. The hotel offers free WI-FI, just have to get the code from the front desk clerk. There is also vending machines on the first floor inside the laundry room, good for a snack while washing clothes. I have already begun recommending this hotel to...This hotel is absolutely one of the best hotels I have stayed at, whether it is for a few short days or up to weeks at a time. From the moment I walked in I could tell it was going to be a good experience, the front desk clerks were very helpful with giving me information about the area and everything I needed to know about the rooms, which made my stay there even more great. The area is great for people staying a day to staying a month, since there is so many restaurants near by to eat out at or order in as well as a Walmart near by to do some grocery shopping. The rooms are very clean, every time you walk in you can just smell the good aroma in the air. Each room is equipped with a fully equipped kitchen, so you can do all your cooking in your room if you don't feel like going out, also has a TV with a remote, working air conditioning, and iron and ironing board. The beds are really comfortable, got a good night sleep on them feeling rejuvenated in the morning every time. The hotel offers free WI-FI, just have to get the code from the front desk clerk. There is also vending machines on the first floor inside the laundry room, good for a snack while washing clothes. I have already begun recommending this hotel to others and I will continue to do so, thank you for all the hard work that goes into making this hotel just that much better than the rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely one of the best hotels I have stayed at, whether it is for a few short days or up to weeks at a time. From the moment I walked in I could tell it was going to be a good experience, the front desk clerks were very helpful with giving me information about the area and everything I needed to know about the rooms, which made my stay there even more great. The area is great for people staying a day to staying a month, since there is so many restaurants near by to eat out at or order in as well as a Walmart near by to do some grocery shopping. The rooms are very clean, every time you walk in you can just smell the good aroma in the air. Each room is equipped with a fully equipped kitchen, so you can do all your cooking in your room if you don't feel like going out, also has a TV with a remote, working air conditioning, and iron and ironing board. The beds are really comfortable, got a good night sleep on them feeling rejuvenated in the morning every time. The hotel offers free WI-FI, just have to get the code from the front desk clerk. There is also vending machines on the first floor inside the laundry room, good for a snack while washing clothes. I have already begun recommending this hotel to...This hotel is absolutely one of the best hotels I have stayed at, whether it is for a few short days or up to weeks at a time. From the moment I walked in I could tell it was going to be a good experience, the front desk clerks were very helpful with giving me information about the area and everything I needed to know about the rooms, which made my stay there even more great. The area is great for people staying a day to staying a month, since there is so many restaurants near by to eat out at or order in as well as a Walmart near by to do some grocery shopping. The rooms are very clean, every time you walk in you can just smell the good aroma in the air. Each room is equipped with a fully equipped kitchen, so you can do all your cooking in your room if you don't feel like going out, also has a TV with a remote, working air conditioning, and iron and ironing board. The beds are really comfortable, got a good night sleep on them feeling rejuvenated in the morning every time. The hotel offers free WI-FI, just have to get the code from the front desk clerk. There is also vending machines on the first floor inside the laundry room, good for a snack while washing clothes. I have already begun recommending this hotel to others and I will continue to do so, thank you for all the hard work that goes into making this hotel just that much better than the rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r144404433-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144404433</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>It was wonderful</t>
+  </si>
+  <si>
+    <t>this hotel was amazing. The location was very nice because it is by lots of restaurants, AMC movie theater, and the mall which is right across the hotel. it is convenient.Costumer service was very helpful and nice they are very attentive with your needs. I recommend this hotel for anyone that  wants to stay in nice quite  and safe place. I also liked the inside the room, there is a full kitchen which is great, the bed and the television was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>this hotel was amazing. The location was very nice because it is by lots of restaurants, AMC movie theater, and the mall which is right across the hotel. it is convenient.Costumer service was very helpful and nice they are very attentive with your needs. I recommend this hotel for anyone that  wants to stay in nice quite  and safe place. I also liked the inside the room, there is a full kitchen which is great, the bed and the television was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r142011964-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142011964</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>My home away from home.</t>
+  </si>
+  <si>
+    <t>Over the past 18 months I have spent each M-F staying in Houston on business.  The first year I was staying in 3-4 Star accommodations and paying the appropriate rates.  However, beginning 2012 the companies travel budgets were dramatically slashed, and I scrambled to find a clean, safe, comfortable, and convenient place to stay.  Not only did I find all that at Extended Stay Americas-Willowbrook, I developed a crush on the staff, lead by the GM Esmeralda, and Front Office supervisor, Diana.  I can't even think about going anywhere else, it's my home away from home.  The new flat screen HD TV's, new beds, and staff equal any 3-4 Star hotel I've stayed at to date, but for half the cost. Hope I am not shooting myself in the foot here, on second thought, stay away, there's monsters in the closets....MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Over the past 18 months I have spent each M-F staying in Houston on business.  The first year I was staying in 3-4 Star accommodations and paying the appropriate rates.  However, beginning 2012 the companies travel budgets were dramatically slashed, and I scrambled to find a clean, safe, comfortable, and convenient place to stay.  Not only did I find all that at Extended Stay Americas-Willowbrook, I developed a crush on the staff, lead by the GM Esmeralda, and Front Office supervisor, Diana.  I can't even think about going anywhere else, it's my home away from home.  The new flat screen HD TV's, new beds, and staff equal any 3-4 Star hotel I've stayed at to date, but for half the cost. Hope I am not shooting myself in the foot here, on second thought, stay away, there's monsters in the closets....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r134665343-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134665343</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Good!</t>
+  </si>
+  <si>
+    <t>I've been staying here for quite a while on their 'long term stay' rate. Sadly they are ending that particular option, as it was excellent value for money.The place is kept clean and tidy, though the stairwells could be cleaned more often as inconsiderate guests leave bits of rubbish in them.The rooms are fine - the TV's are old, but I understand that these are due to be replaced with plasma TV's later this year.The WiFi can be a little slow (especially in the evenings), but it is free.The Manager and Staff have always been helpful and friendly.The location is very handy for Willowbrook Mall, Restaurants, Cinemas and right by HW 249 for easy access to the main roads.Overall, if you are looking for somewhere reasonable to stay for a while, at a reasonable price, I'd recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>I've been staying here for quite a while on their 'long term stay' rate. Sadly they are ending that particular option, as it was excellent value for money.The place is kept clean and tidy, though the stairwells could be cleaned more often as inconsiderate guests leave bits of rubbish in them.The rooms are fine - the TV's are old, but I understand that these are due to be replaced with plasma TV's later this year.The WiFi can be a little slow (especially in the evenings), but it is free.The Manager and Staff have always been helpful and friendly.The location is very handy for Willowbrook Mall, Restaurants, Cinemas and right by HW 249 for easy access to the main roads.Overall, if you are looking for somewhere reasonable to stay for a while, at a reasonable price, I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r134300804-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134300804</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>quite ok</t>
+  </si>
+  <si>
+    <t>The rooms are clean, carpets not stained, had basic amenities such as the kitchen.... the exhaust though of the kitchen is intresting coz there was no airduct in it. Its just a fan on top of the stove so it just basically scatters the smell around the room. The room walls are not too thick to keep sounds in. So you can hear whatever other people are doin in th other room. And if you stay on the lower levels you could even hear otherguests walking on the room above you.  Either then that. Its livable. I just hopesome visitors would just respect others staying at thehotel and just keep it down at night coz surely it would bother others..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>The rooms are clean, carpets not stained, had basic amenities such as the kitchen.... the exhaust though of the kitchen is intresting coz there was no airduct in it. Its just a fan on top of the stove so it just basically scatters the smell around the room. The room walls are not too thick to keep sounds in. So you can hear whatever other people are doin in th other room. And if you stay on the lower levels you could even hear otherguests walking on the room above you.  Either then that. Its livable. I just hopesome visitors would just respect others staying at thehotel and just keep it down at night coz surely it would bother others..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r35879815-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35879815</t>
+  </si>
+  <si>
+    <t>07/26/2009</t>
+  </si>
+  <si>
+    <t>Avoid this one!</t>
+  </si>
+  <si>
+    <t>Well, you know they say you get what you pay for? This hotel is the definition of ''Cheap"" from the hard beds, to the sloppy housekeeping, to broken washers in laundry room, to the ''types'' they rent to, if you are a business traveler,  go somewhere else,  you will not get any sleep, because the noise at night, especially on weekends, is out of control. The  security  (haha) that you can never find. The manager is clueless, the rest of her staff are teenagers who dont take their jobs seriously.  And for the reputation that Extended Stay Hotels have,  this won totally sucks,  I would give it a negative rate if I could.  I have personally observed people partying in their cars in the parking lot, from smoking pot, and etc,  Same thing in the hallways,  after hours with the 'younger' guests.  Since I am from AZ, my impression is this hotel has a 'party' reputation.  I will say that I am seriously disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Well, you know they say you get what you pay for? This hotel is the definition of ''Cheap"" from the hard beds, to the sloppy housekeeping, to broken washers in laundry room, to the ''types'' they rent to, if you are a business traveler,  go somewhere else,  you will not get any sleep, because the noise at night, especially on weekends, is out of control. The  security  (haha) that you can never find. The manager is clueless, the rest of her staff are teenagers who dont take their jobs seriously.  And for the reputation that Extended Stay Hotels have,  this won totally sucks,  I would give it a negative rate if I could.  I have personally observed people partying in their cars in the parking lot, from smoking pot, and etc,  Same thing in the hallways,  after hours with the 'younger' guests.  Since I am from AZ, my impression is this hotel has a 'party' reputation.  I will say that I am seriously disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r25026058-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25026058</t>
+  </si>
+  <si>
+    <t>02/23/2009</t>
+  </si>
+  <si>
+    <t>Truck broken into-attempted burglary</t>
+  </si>
+  <si>
+    <t>I am here on business. The hotel was booked for me through the company I work for, so I didn't have much choice. The beds are hard and uncomfortable. The area didn't feel safe.  I had already stayed here for about 4 days, left for the weekend to go home then came back to stay on Sunday evening for work on Monday. I went out to my car to find out that my car lock had been pushed into the door panel. There was a big hole where the lock should be. I do not reccommend this hotel because they are supposed to have security. Security did not do their job last night. DSMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>I am here on business. The hotel was booked for me through the company I work for, so I didn't have much choice. The beds are hard and uncomfortable. The area didn't feel safe.  I had already stayed here for about 4 days, left for the weekend to go home then came back to stay on Sunday evening for work on Monday. I went out to my car to find out that my car lock had been pushed into the door panel. There was a big hole where the lock should be. I do not reccommend this hotel because they are supposed to have security. Security did not do their job last night. DSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r18752612-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18752612</t>
+  </si>
+  <si>
+    <t>08/08/2008</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Got a great deal on this hotel on hotwire, to be honest for the price I got was not expexting much. I was very surpriesed, the location is very new (probably no more than 3 years old) so it was very clean with new fixtures. Rooms were very clean, the staff was very helpful. The location is a bit awkward, its is behind a small strip mall across the street from Joe's crab shack. But very close to the willowbrook mall and you can find just about every retailer in exsistence off of FM 1960. Overall it was a great place to stay for a great price.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1516,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1548,2666 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>209</v>
+      </c>
+      <c r="X21" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>275</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>302</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>345</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>346</v>
+      </c>
+      <c r="X37" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s">
+        <v>353</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>354</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J39" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L39" t="s">
+        <v>360</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_233.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_233.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r602372502-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107711</t>
+  </si>
+  <si>
+    <t>602372502</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Willowbrook-HWY 249</t>
+  </si>
+  <si>
+    <t>Diana, Esmerelda, Oliver, and the staff at this location are awesome! Thank you for providing EXCELLENT CUSTOMER SERVICE! I would recommend this location to anyone seeking great accommendations. Good!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Diana, Esmerelda, Oliver, and the staff at this location are awesome! Thank you for providing EXCELLENT CUSTOMER SERVICE! I would recommend this location to anyone seeking great accommendations. Good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r580395604-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580395604</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Very happy</t>
+  </si>
+  <si>
+    <t>Ms Nikki I was very happy with her service.excellent customer service . She helped out like no other this was a great place to stay they comfort you like apartments made me feel at home . Good experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Ms Nikki I was very happy with her service.excellent customer service . She helped out like no other this was a great place to stay they comfort you like apartments made me feel at home . Good experienceMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r577238232-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107711</t>
-  </si>
-  <si>
     <t>577238232</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>Diana charged me $70 extra plus tax for something Austin at the Champions Center location was offering for free..I probably won't be back.. instead of customer satisfaction they want more money it seems.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -237,9 +294,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded January 22, 2018</t>
   </si>
   <si>
@@ -249,6 +303,57 @@
     <t>Very clean. Very friendly staff. Plenty of space in the room so you don't feel cramped. They had security at the entrance which was very comforting knowing I didn't have to worry about my car. Grabbed a cup of coffee on my way out and it was also deliciousMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r551015784-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551015784</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Great say</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at ESA 249. I stayed there for the holidays and everything was nice and calm. Staff was nice and the check in process was fast and easy. Security is helpful and hotel is secured. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at ESA 249. I stayed there for the holidays and everything was nice and calm. Staff was nice and the check in process was fast and easy. Security is helpful and hotel is secured. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r547781908-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547781908</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay of America Hotels</t>
+  </si>
+  <si>
+    <t>Too High for the price they want for the rooms. This location had roaches &amp; in a dark area. I had to change rooms 3 times because the toilet wasn't working in one room &amp; the bathtub in another. Place was not good for the amount of money spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Too High for the price they want for the rooms. This location had roaches &amp; in a dark area. I had to change rooms 3 times because the toilet wasn't working in one room &amp; the bathtub in another. Place was not good for the amount of money spent.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r543626579-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -267,9 +372,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 28, 2017</t>
   </si>
   <si>
@@ -333,6 +435,57 @@
     <t>Great Service the rooms are very big and spacious no place like home the breakfast is not very big but the rooms are equipped with kitchens appliance the guest was very respectful no loud noise or musicMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r496916081-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496916081</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Nice accommodation with friendly staff.</t>
+  </si>
+  <si>
+    <t>Been staying here since last 6 months. It's clean, comfy and a secure place to stay. The staff is professional, responsive and very friendly. Better than other properties here around. I would recommend. It's much better than the other property on 1960 of the same brand. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Been staying here since last 6 months. It's clean, comfy and a secure place to stay. The staff is professional, responsive and very friendly. Better than other properties here around. I would recommend. It's much better than the other property on 1960 of the same brand. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r491507361-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491507361</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Well located, clean, comfortable and very friendly staff.</t>
+  </si>
+  <si>
+    <t>This place is a very good option, we came from a really scary experience with an Airbnb apartment and thanks Fod we found this place. We stayed here for a month (We got relocated to the area, we are a family of four) and this place is perfect. Clean, comfortable, well located and with a very friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>This place is a very good option, we came from a really scary experience with an Airbnb apartment and thanks Fod we found this place. We stayed here for a month (We got relocated to the area, we are a family of four) and this place is perfect. Clean, comfortable, well located and with a very friendly staff. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r487728058-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -408,6 +561,51 @@
     <t>Room was clean. Lighting in the room was very well done. Hotel Lobby and the hotel grounds are all well kept. Coffee was good and breakfast bar was convenient. Hotel is located close to shopping area. Most importantly, Receptionist staff were friendly and courteous.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r474273984-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474273984</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Temporary home</t>
+  </si>
+  <si>
+    <t>Due to my health issue it has been simply a blessing to have everyone at ESA willow brook to be as helpful as they have been. from Jessica and Suly in the morning putting breakfast out. Steve maintaining cleanliness around the property. Esmeralda Diana Xiomara Victor and their new member Oscar all are very on point. Although sometimes they seem busy they do there best to work together and accommodate all of their guests. Misunderstandings and miscommunication is apart of being human. Although I only know her as the very sweet lady in housekeeping. she is extremely thorough when she cleans the rooms. She is always smiling  Everyone here at ESA is a delight. and I Thank  everyone for doing your very best to make everyone's stay here GREAT! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Due to my health issue it has been simply a blessing to have everyone at ESA willow brook to be as helpful as they have been. from Jessica and Suly in the morning putting breakfast out. Steve maintaining cleanliness around the property. Esmeralda Diana Xiomara Victor and their new member Oscar all are very on point. Although sometimes they seem busy they do there best to work together and accommodate all of their guests. Misunderstandings and miscommunication is apart of being human. Although I only know her as the very sweet lady in housekeeping. she is extremely thorough when she cleans the rooms. She is always smiling  Everyone here at ESA is a delight. and I Thank  everyone for doing your very best to make everyone's stay here GREAT! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r447031775-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447031775</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Medical Stay</t>
+  </si>
+  <si>
+    <t>I've been in Houston for few months since my now 5 years son took sick. I checked into Extended America. From the time I enter the hotel it has been nothing but a great experience. It's like a (5) star hotel with a affordable price. It's a blessing to be able to save money by food instead of having to eat out everyday. It's very clean and the staff is amazingly friendly,always concerned about their customers needs and satisfaction. Since being in Houston I've broken my finger. The staff have came from around the desk to open doors for me, even assist me with taking my things to my room. They also have a great Security team. Extended Stay America keep up what you doing. This is now my home away from home. I will continue to inform everyone about my great experience here at Extended Stay America 249/Willowbrook.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been in Houston for few months since my now 5 years son took sick. I checked into Extended America. From the time I enter the hotel it has been nothing but a great experience. It's like a (5) star hotel with a affordable price. It's a blessing to be able to save money by food instead of having to eat out everyday. It's very clean and the staff is amazingly friendly,always concerned about their customers needs and satisfaction. Since being in Houston I've broken my finger. The staff have came from around the desk to open doors for me, even assist me with taking my things to my room. They also have a great Security team. Extended Stay America keep up what you doing. This is now my home away from home. I will continue to inform everyone about my great experience here at Extended Stay America 249/Willowbrook.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r438637485-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,6 +666,60 @@
     <t>I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night...I was in town on a Friday for an internship at a hospital nearby. When we first arrived at the hotel, my heart sank a little bit as it was walking distance to a sex shop and a strip club. Of course I got a killer rate via Priceline's Express Deals where they don't reveal the hotel name until after you pay, but I still hesitated as I pulled up to the establishment. Let me just say that the staff is awesome. They are nice, efficient, and very accommodating so that definitely gives the hotel +1 star. However, everything quickly went downhill. I had already seen reviews for this hotel so I sort of knew it wasn't going to be all that perfect... That night after checking in, we found our toilet to be leaking from its pipes profusely after one flush. I quickly alerted the person in the lobby and she graciously let us change rooms. In our next room, I found a dead roach in the cupboards and some wrapped up plastic/foil underneath the chair. Honestly, I wouldn't have found these things if I wasn't actively looking for them, but I knew that this place had a reputation for being dirty so I wanted to know what I was getting myself into. I slept just fine, the AC worked well, but I had to wake up at 6 AM the next day and all the activity the night prior knocked me off my game a little bit. I would NOT recommend staying here. If you do, make sure to give your room a thorough check before you lay down and rest your head.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r391419530-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391419530</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Perfect for Contractors or Short Stay.</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while on a training course for work. Only a few miles from the NOV Technical College so quite handy ($10 taxi ride). The rooms and clean and spacious and the staff very courteous and helpful.Although no food is served at the Hotel, other than a grab and go breakfast, there is a very good bar (the Brick House) and restaurant  (Saltgrass Steakhouse) just across the street. There is also a cinema complex nearby, between Saltgrass and Brick House.It is within easy walking distance (if you have no car) of the Willowbrook Mall and some other shopping places like Academy Sports and Best Buys. The only drawbacks are that there are no laundry facility at the hotel, only the steam iron and board in the room, and there is no access to a supermarket, or even mini market, nearby. Certainly not within walking distance (although very little is within walking distance in Houston).If you had a car, then there would be no issues. the hotel is in a fairly quite area and has good access routes to the airport (30 minutes away) and downtown Houston.Overall, a good hotel for my needs at the time, but I wouldn't recommend as a family hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while on a training course for work. Only a few miles from the NOV Technical College so quite handy ($10 taxi ride). The rooms and clean and spacious and the staff very courteous and helpful.Although no food is served at the Hotel, other than a grab and go breakfast, there is a very good bar (the Brick House) and restaurant  (Saltgrass Steakhouse) just across the street. There is also a cinema complex nearby, between Saltgrass and Brick House.It is within easy walking distance (if you have no car) of the Willowbrook Mall and some other shopping places like Academy Sports and Best Buys. The only drawbacks are that there are no laundry facility at the hotel, only the steam iron and board in the room, and there is no access to a supermarket, or even mini market, nearby. Certainly not within walking distance (although very little is within walking distance in Houston).If you had a car, then there would be no issues. the hotel is in a fairly quite area and has good access routes to the airport (30 minutes away) and downtown Houston.Overall, a good hotel for my needs at the time, but I wouldn't recommend as a family hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r374673781-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374673781</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Don't expect clean towels or maid service</t>
+  </si>
+  <si>
+    <t>We travel to Houston every year and stay in this hotel. This year we wondered what happened. Disappointed ! We stayed a week with no maid service at all. We asked why no coffee pot and kitchen items were available in the completely empty kitchen.The site advertises "Fully Equipped Kitchen !". We were told people were stealing things so we had to ask for items. We chose not to. However, everyday there were many opportunities to take coffee pots and everything else since the boxes containing all the kitchen items were located all over the floor in the hallway. A email to the manager was answered only with "we look forward to seeing next year".MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>We travel to Houston every year and stay in this hotel. This year we wondered what happened. Disappointed ! We stayed a week with no maid service at all. We asked why no coffee pot and kitchen items were available in the completely empty kitchen.The site advertises "Fully Equipped Kitchen !". We were told people were stealing things so we had to ask for items. We chose not to. However, everyday there were many opportunities to take coffee pots and everything else since the boxes containing all the kitchen items were located all over the floor in the hallway. A email to the manager was answered only with "we look forward to seeing next year".More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r333371812-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -540,6 +792,57 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r242602228-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242602228</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Do It Yourself America</t>
+  </si>
+  <si>
+    <t>We stayed 6 nights and in that entire time a maid did not enter the room. Although it had a full kitchen, there was not a glass or plate in it, so I sent my husband downstairs and he came back lugging 3 huge plastic boxes of stuff so that we could fill our cupboards and get a coffeemaker.  But guess what?  The coffeemaker didn't come with coffee so I had to go downstairs for another "Mother May I" event.  No hairdryer comes in the 3 bins so that required another trip downstairs the next morning.  We had to take out our own trash, go downstairs with our wet towels and swap them out, and we found ourselves rationing our soap and TP to avoid another trip downstairs.   The walls were so thin we actually heard a phone vibrating in another room and you got to experience all your immediate neighbors plumbing needs quite intimately.  I would definitely recommend that you pass on this experience and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>We stayed 6 nights and in that entire time a maid did not enter the room. Although it had a full kitchen, there was not a glass or plate in it, so I sent my husband downstairs and he came back lugging 3 huge plastic boxes of stuff so that we could fill our cupboards and get a coffeemaker.  But guess what?  The coffeemaker didn't come with coffee so I had to go downstairs for another "Mother May I" event.  No hairdryer comes in the 3 bins so that required another trip downstairs the next morning.  We had to take out our own trash, go downstairs with our wet towels and swap them out, and we found ourselves rationing our soap and TP to avoid another trip downstairs.   The walls were so thin we actually heard a phone vibrating in another room and you got to experience all your immediate neighbors plumbing needs quite intimately.  I would definitely recommend that you pass on this experience and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r240764357-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240764357</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>By Far the worst amenities of any hotel I've ever stayed at</t>
+  </si>
+  <si>
+    <t>First off, not clean or updated. Large burn marks on kitchen floor. 2 plastic hangers in closet. Not one kitchen utensil. Had to go to desk to obtain anything including toilet tissue. We stayed 5 nights, no maid service unless you stay a week???? Not a cheap hotel rack rate in high $80s. Per night.Towels like sandpaper, and you have to turn in your dirty towels at front desk to get clean ones.I complained to girl at front desk generally, and was told everyone complains.I DONT KNOW WHY ANYONE WOULD STAY AT THIS PLACE, OR ANY EXTENDED STAY AMERICA, WHEN THERE ARE MANY MUCH BETTER CHOICES AT SIMILAR PRICES. I travel all over the world, by far the WORST AMENITIES IVE EVER EXPERIENCEDMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>First off, not clean or updated. Large burn marks on kitchen floor. 2 plastic hangers in closet. Not one kitchen utensil. Had to go to desk to obtain anything including toilet tissue. We stayed 5 nights, no maid service unless you stay a week???? Not a cheap hotel rack rate in high $80s. Per night.Towels like sandpaper, and you have to turn in your dirty towels at front desk to get clean ones.I complained to girl at front desk generally, and was told everyone complains.I DONT KNOW WHY ANYONE WOULD STAY AT THIS PLACE, OR ANY EXTENDED STAY AMERICA, WHEN THERE ARE MANY MUCH BETTER CHOICES AT SIMILAR PRICES. I travel all over the world, by far the WORST AMENITIES IVE EVER EXPERIENCEDMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r240087013-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,9 +858,6 @@
     <t>I live in the area (Houston) but my husband, 2 dogs, and I had to find a place to stay while we were having some remodeling and construction completed on our home. I travel frequently as part of my job and I can honestly say that staying here felt like a home away from home. The accommodations were nice and the environment was pleasant enough, but what really made the difference was the staff. The people working for this location went above and beyond to make sure not only my husband and I were comfortable, but that my dogs (my babies) were comfortable too. I have to say that specifically the front desk personnel, Xionara and Diana, went out of their way to ensure my happiness, safety, and just make the overall transition from home to hotel a very enjoyable one. I would most definitely recommend this extended stay america- willowbrook - HWY 249 - Houston, to any of my friends and family. In fact, most of my family lives out of town and will be coming to Houston for the holidays. They already plan to stay here. So thanks so much to everyone involved in making my family's stay a great one!MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded November 20, 2014</t>
   </si>
   <si>
@@ -603,6 +903,45 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r211159198-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211159198</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Families beware, there are much better options out there!</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute for two nights during our stay in Houston. I paid way less than the advertised price through Priceline, and truly got the short end of the stick with this "deal." We were driving in from Detroit and ran into issues with our car, so I called ahead to make sure they would keep our reservation. The lady on the phone was less than willing to help and promised to call me back to confirm our status. I waited 7 hours (I had called at 8 am, expecting to check in around 10 pm) but never heard from her. In fact, she never contacted me. My boyfriend then called and the girl on the phone assured him it would be fine. When we showed up, the room seemed fine at first. Nothing extravagant, a little outdated, but right for the $45/night I paid. I hopped in the shower and noticed mold all along the caulk. It was so late that it wasn't worth calling anyone, so I grabbed a towel and was disgusted to see hair and stains on the towels. I'm not sure if they even bothered to clean between guests, but they certainly didn't bother stopping by my room between the two nights. We woke up the second day covered in itchy bites and got the heck out. It would have been fine if someone bothered cleaning, but this was just gross. The...We booked this hotel last minute for two nights during our stay in Houston. I paid way less than the advertised price through Priceline, and truly got the short end of the stick with this "deal." We were driving in from Detroit and ran into issues with our car, so I called ahead to make sure they would keep our reservation. The lady on the phone was less than willing to help and promised to call me back to confirm our status. I waited 7 hours (I had called at 8 am, expecting to check in around 10 pm) but never heard from her. In fact, she never contacted me. My boyfriend then called and the girl on the phone assured him it would be fine. When we showed up, the room seemed fine at first. Nothing extravagant, a little outdated, but right for the $45/night I paid. I hopped in the shower and noticed mold all along the caulk. It was so late that it wasn't worth calling anyone, so I grabbed a towel and was disgusted to see hair and stains on the towels. I'm not sure if they even bothered to clean between guests, but they certainly didn't bother stopping by my room between the two nights. We woke up the second day covered in itchy bites and got the heck out. It would have been fine if someone bothered cleaning, but this was just gross. The walls had a few light stains and the breakfast was a joke (coffee and instant oatmeal). Not worth the bug bites and sketchy location for the price.Also, one review mentioned the nightclub across the road. Just a heads up, it's not exactly a night club... You have to drive through several adult attractions to reach the hotel. In fact, the hotel is right behind an adult novelty store with very revealing displays. Both nights there was a cop sitting in the parking lot, but I'll let you draw conclusions on that one. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute for two nights during our stay in Houston. I paid way less than the advertised price through Priceline, and truly got the short end of the stick with this "deal." We were driving in from Detroit and ran into issues with our car, so I called ahead to make sure they would keep our reservation. The lady on the phone was less than willing to help and promised to call me back to confirm our status. I waited 7 hours (I had called at 8 am, expecting to check in around 10 pm) but never heard from her. In fact, she never contacted me. My boyfriend then called and the girl on the phone assured him it would be fine. When we showed up, the room seemed fine at first. Nothing extravagant, a little outdated, but right for the $45/night I paid. I hopped in the shower and noticed mold all along the caulk. It was so late that it wasn't worth calling anyone, so I grabbed a towel and was disgusted to see hair and stains on the towels. I'm not sure if they even bothered to clean between guests, but they certainly didn't bother stopping by my room between the two nights. We woke up the second day covered in itchy bites and got the heck out. It would have been fine if someone bothered cleaning, but this was just gross. The...We booked this hotel last minute for two nights during our stay in Houston. I paid way less than the advertised price through Priceline, and truly got the short end of the stick with this "deal." We were driving in from Detroit and ran into issues with our car, so I called ahead to make sure they would keep our reservation. The lady on the phone was less than willing to help and promised to call me back to confirm our status. I waited 7 hours (I had called at 8 am, expecting to check in around 10 pm) but never heard from her. In fact, she never contacted me. My boyfriend then called and the girl on the phone assured him it would be fine. When we showed up, the room seemed fine at first. Nothing extravagant, a little outdated, but right for the $45/night I paid. I hopped in the shower and noticed mold all along the caulk. It was so late that it wasn't worth calling anyone, so I grabbed a towel and was disgusted to see hair and stains on the towels. I'm not sure if they even bothered to clean between guests, but they certainly didn't bother stopping by my room between the two nights. We woke up the second day covered in itchy bites and got the heck out. It would have been fine if someone bothered cleaning, but this was just gross. The walls had a few light stains and the breakfast was a joke (coffee and instant oatmeal). Not worth the bug bites and sketchy location for the price.Also, one review mentioned the nightclub across the road. Just a heads up, it's not exactly a night club... You have to drive through several adult attractions to reach the hotel. In fact, the hotel is right behind an adult novelty store with very revealing displays. Both nights there was a cop sitting in the parking lot, but I'll let you draw conclusions on that one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r209753790-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209753790</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Willowbrook hwy 249</t>
+  </si>
+  <si>
+    <t>I been staying in extended stay for business since February of 2014 on and off, had a pleasant experience until couple of month ago we checked in early at 3am hoping if our room ready we get in, I have a one year old, so the midnight shift recognize us &amp; was happy to see us again, we got happier that she allowed us to check in earlier, she told us they will be no charge and give us a paper to sign that has $0 charge. Next morning the Manager Diana  called my husband upset that we checked inn early &amp; want to charge us $94 for the 6hour we stayed in, she was rude from what my husband mentioned than he talked to Esmeralda &amp; she was even worst as she said: we do not offer free nights &amp; Priceline guest are not our top priority, we got very very sad about the poor treatment &amp; the attitude, &amp; she told us if we don't pay we leave immediately, that was shocking for us, than we called Nancy the regional manager and she never give a dum about the fact we are a return customer &amp; made exception specially when is the stuff miscommunication, so customer shouldn't be going trough this, we are promised early check inn with no charge, than they backed up there word. Nancy offered  that we either pay half of the price or go....I been staying in extended stay for business since February of 2014 on and off, had a pleasant experience until couple of month ago we checked in early at 3am hoping if our room ready we get in, I have a one year old, so the midnight shift recognize us &amp; was happy to see us again, we got happier that she allowed us to check in earlier, she told us they will be no charge and give us a paper to sign that has $0 charge. Next morning the Manager Diana  called my husband upset that we checked inn early &amp; want to charge us $94 for the 6hour we stayed in, she was rude from what my husband mentioned than he talked to Esmeralda &amp; she was even worst as she said: we do not offer free nights &amp; Priceline guest are not our top priority, we got very very sad about the poor treatment &amp; the attitude, &amp; she told us if we don't pay we leave immediately, that was shocking for us, than we called Nancy the regional manager and she never give a dum about the fact we are a return customer &amp; made exception specially when is the stuff miscommunication, so customer shouldn't be going trough this, we are promised early check inn with no charge, than they backed up there word. Nancy offered  that we either pay half of the price or go. I was very sad about the unfairness of the suff, also they was a customer just checked inn &amp; smells biotank in here room &amp; they decided to leave so Diana was also giving them hard time &amp; they were upset,  the whole time my husband was calm talking to them until I saw no fair results &amp; I jumped in and told Diana since she was the one causing us the issues &amp; her bosses backing her up with no logic of business or whatsoever, just not professional at all treating customer like 3 class citizens, so I let here know that America is for advanced people, we moving this country forward but by having people like yourself We are moving it backward. So we got kicked out &amp; stayed in other extended stay. 2month passed until yesterday, after 6h drive, our work is next to the same hotel again willowbrook 249, so I told my husband lets just book here is closer to work, was a bad idea because I walked inn and Esmeralda approached me &amp; said I remember you, you can't stay here, I replied its business &amp; I have no problem with extended stay just Diana &amp; you guys have personal issues but this business, would it help if I apologize it's just business for us &amp; I don't mind being the better person, She said she worked for us for 6 years &amp; really doesn't like you guys. let me call my boss, I replied no thanksAnyway so sad when management abuse there power &amp; mess treat customer to back up there employee that were wrong. I hope one day Diana, Esmeralda &amp; Nancy get to walk in our shoes &amp; see how it feels, I really believe in karma, my daughter my husband &amp; I suffered huge stress from this experience, &amp; we are great guest everywhere we go, we care about leaving a good foot print but this time this people do my family wrong &amp; they got away with it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I been staying in extended stay for business since February of 2014 on and off, had a pleasant experience until couple of month ago we checked in early at 3am hoping if our room ready we get in, I have a one year old, so the midnight shift recognize us &amp; was happy to see us again, we got happier that she allowed us to check in earlier, she told us they will be no charge and give us a paper to sign that has $0 charge. Next morning the Manager Diana  called my husband upset that we checked inn early &amp; want to charge us $94 for the 6hour we stayed in, she was rude from what my husband mentioned than he talked to Esmeralda &amp; she was even worst as she said: we do not offer free nights &amp; Priceline guest are not our top priority, we got very very sad about the poor treatment &amp; the attitude, &amp; she told us if we don't pay we leave immediately, that was shocking for us, than we called Nancy the regional manager and she never give a dum about the fact we are a return customer &amp; made exception specially when is the stuff miscommunication, so customer shouldn't be going trough this, we are promised early check inn with no charge, than they backed up there word. Nancy offered  that we either pay half of the price or go....I been staying in extended stay for business since February of 2014 on and off, had a pleasant experience until couple of month ago we checked in early at 3am hoping if our room ready we get in, I have a one year old, so the midnight shift recognize us &amp; was happy to see us again, we got happier that she allowed us to check in earlier, she told us they will be no charge and give us a paper to sign that has $0 charge. Next morning the Manager Diana  called my husband upset that we checked inn early &amp; want to charge us $94 for the 6hour we stayed in, she was rude from what my husband mentioned than he talked to Esmeralda &amp; she was even worst as she said: we do not offer free nights &amp; Priceline guest are not our top priority, we got very very sad about the poor treatment &amp; the attitude, &amp; she told us if we don't pay we leave immediately, that was shocking for us, than we called Nancy the regional manager and she never give a dum about the fact we are a return customer &amp; made exception specially when is the stuff miscommunication, so customer shouldn't be going trough this, we are promised early check inn with no charge, than they backed up there word. Nancy offered  that we either pay half of the price or go. I was very sad about the unfairness of the suff, also they was a customer just checked inn &amp; smells biotank in here room &amp; they decided to leave so Diana was also giving them hard time &amp; they were upset,  the whole time my husband was calm talking to them until I saw no fair results &amp; I jumped in and told Diana since she was the one causing us the issues &amp; her bosses backing her up with no logic of business or whatsoever, just not professional at all treating customer like 3 class citizens, so I let here know that America is for advanced people, we moving this country forward but by having people like yourself We are moving it backward. So we got kicked out &amp; stayed in other extended stay. 2month passed until yesterday, after 6h drive, our work is next to the same hotel again willowbrook 249, so I told my husband lets just book here is closer to work, was a bad idea because I walked inn and Esmeralda approached me &amp; said I remember you, you can't stay here, I replied its business &amp; I have no problem with extended stay just Diana &amp; you guys have personal issues but this business, would it help if I apologize it's just business for us &amp; I don't mind being the better person, She said she worked for us for 6 years &amp; really doesn't like you guys. let me call my boss, I replied no thanksAnyway so sad when management abuse there power &amp; mess treat customer to back up there employee that were wrong. I hope one day Diana, Esmeralda &amp; Nancy get to walk in our shoes &amp; see how it feels, I really believe in karma, my daughter my husband &amp; I suffered huge stress from this experience, &amp; we are great guest everywhere we go, we care about leaving a good foot print but this time this people do my family wrong &amp; they got away with it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r200133324-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1020,42 @@
     <t>Located on a service road adjoining Hwy 249, it's situated 15 minutes from the Premium outlets. Rather noisy laying off the Fwy but certainly convenient to a mall, steakhouse, bar, cinema and the like. Self contained kitchenette with basic accompaniments, clean linen, double bed, dated and worn, but certainly functional. Carry your cell/mobile with you as it seems that one is unable to make a call overseas without booking a call or without operator assistance. Again, functional and serves a purpose for the traveller.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r193457857-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193457857</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Just stayed at Ext. Stay Amr. Willowbrook HWY, my second stay with extended stay Amr. It was good and just as expected. All amenities were there, very hot water in shower, even they had a dish washing liquid and washing sponge. Flat screen TV, good bed, kitchen. Room not crystal clean but what do you expect for the price. Note no salt to cook with, so get your own in McDonalds. The location is fine if you dont need to be near downtown, also close to Willowbrook mall and Walmart is not far too, so easy to buy food. The personnel was very pleasant and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r192405836-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192405836</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>no hot water!</t>
+  </si>
+  <si>
+    <t>I will have to say that my first experience at Extended Stay America has not been most pleasant.  They had boiler problems going on for my four days staying here and I had to call them every time I wanted to shower to get the hot water back on.  Seriously???  No hot water for $100 per day??  I can pretty much tolerate things in a motel as most guests do not but something simple like hot water..well it was ridiculous.  When I complained to the front desk they told me I could check out and go to another Extended Stay.  Now that would have made sense except here in Houston, Texas on this day, it is actually a wintry mix and we have a travel advisory and there is ice in the parking lot and all over the cars.  I do not think it was wise of her to suggest I travel the roads.  How about just fixing the boiler issue?  Not too many guests staying here and it most likely is because of that.  My company paid for three out of four nights.  The one night I paid with my own money and I am a single woman on a budget and desire a refund.  They did not post any warnings on our doors concerning the hot water going out which I thought was poor customer service.  I also had a broken peephole so I couldnt look out my...I will have to say that my first experience at Extended Stay America has not been most pleasant.  They had boiler problems going on for my four days staying here and I had to call them every time I wanted to shower to get the hot water back on.  Seriously???  No hot water for $100 per day??  I can pretty much tolerate things in a motel as most guests do not but something simple like hot water..well it was ridiculous.  When I complained to the front desk they told me I could check out and go to another Extended Stay.  Now that would have made sense except here in Houston, Texas on this day, it is actually a wintry mix and we have a travel advisory and there is ice in the parking lot and all over the cars.  I do not think it was wise of her to suggest I travel the roads.  How about just fixing the boiler issue?  Not too many guests staying here and it most likely is because of that.  My company paid for three out of four nights.  The one night I paid with my own money and I am a single woman on a budget and desire a refund.  They did not post any warnings on our doors concerning the hot water going out which I thought was poor customer service.  I also had a broken peephole so I couldnt look out my door and there is no security or cameras.  But I tolerated that because I have not had a security issue.  If I stay at an extended stay, it may be at another Extended Stay but not this one.  Not to mention there is a strip club, a bikini bar and a sexually oriented lingerie business close to the motel.   Although it is very convenient to the freeway and a shopping mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I will have to say that my first experience at Extended Stay America has not been most pleasant.  They had boiler problems going on for my four days staying here and I had to call them every time I wanted to shower to get the hot water back on.  Seriously???  No hot water for $100 per day??  I can pretty much tolerate things in a motel as most guests do not but something simple like hot water..well it was ridiculous.  When I complained to the front desk they told me I could check out and go to another Extended Stay.  Now that would have made sense except here in Houston, Texas on this day, it is actually a wintry mix and we have a travel advisory and there is ice in the parking lot and all over the cars.  I do not think it was wise of her to suggest I travel the roads.  How about just fixing the boiler issue?  Not too many guests staying here and it most likely is because of that.  My company paid for three out of four nights.  The one night I paid with my own money and I am a single woman on a budget and desire a refund.  They did not post any warnings on our doors concerning the hot water going out which I thought was poor customer service.  I also had a broken peephole so I couldnt look out my...I will have to say that my first experience at Extended Stay America has not been most pleasant.  They had boiler problems going on for my four days staying here and I had to call them every time I wanted to shower to get the hot water back on.  Seriously???  No hot water for $100 per day??  I can pretty much tolerate things in a motel as most guests do not but something simple like hot water..well it was ridiculous.  When I complained to the front desk they told me I could check out and go to another Extended Stay.  Now that would have made sense except here in Houston, Texas on this day, it is actually a wintry mix and we have a travel advisory and there is ice in the parking lot and all over the cars.  I do not think it was wise of her to suggest I travel the roads.  How about just fixing the boiler issue?  Not too many guests staying here and it most likely is because of that.  My company paid for three out of four nights.  The one night I paid with my own money and I am a single woman on a budget and desire a refund.  They did not post any warnings on our doors concerning the hot water going out which I thought was poor customer service.  I also had a broken peephole so I couldnt look out my door and there is no security or cameras.  But I tolerated that because I have not had a security issue.  If I stay at an extended stay, it may be at another Extended Stay but not this one.  Not to mention there is a strip club, a bikini bar and a sexually oriented lingerie business close to the motel.   Although it is very convenient to the freeway and a shopping mall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r173104525-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -750,6 +1125,57 @@
     <t>Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we...Beware and think carefully before staying here. There are much better hotels to stay in this area. First thing first is the service. The staff were courteous but not welcoming. Then I discovered only after I settled into my room that rooms are not cleaned on a daily basis. At first I was a bit bothered by this but.settled down once I found that I could come to the front and get clean towels when I need them (you have to come and get them by the way). However, when I was ready for bed, I removed the covers to find crumbs and stains on the sheets! And there was nothing I could do at that moment because I checked into the hotel pretty late and the front desk closed soon after. The next morning I went to the front desk to report this issue and was told the linens cannot be changed out for 2 days unless I want to change the linens myself. I agreed because the sheets were disgusting, but them I was told I would have to wait till the evening when the linens were clean... I once again agreed. So I was left to change my sheets at a hotel which is something i've never dealt with before. However, the worst experience was the bugs. Yes bugs! On the sheets, in the kitchen, inside the lamps! My boyfriend and I were so grossed out, we could not sleep our last night in our room. When we reported the issue, the front desk staff brushed off the comment as though it was not a big deal. So as a result, I would NEVER recommend this hotel to anyone. I've stayed at other extended stay locations and did not have a single issue. But this stay has to be the worst experience I've had at a hotel in my entire life. For the rate of this place I expect a much better service (such as changing my sheets regularly). fyi: the breakfast is not actual breakfast. Just a shelf with granola bars, muffins and coffee. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r164210524-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164210524</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent 2 star facility, ample parking</t>
+  </si>
+  <si>
+    <t>While this is not a four star hotel the staff is definitely doing its best to put guests first. The location of this Extended Stay is just off Willowbrook Mall on the other side of highway 249. Rates are very affordable, room was spacious, bathroom clean, free internet worked well. There was even a grab-and-go-breakfast if you walk past the lobby in the morning (cereal bars, apples, oranges, coffee). There are several restaurants nearby. Should you need transportation, there is a public bus stop on the frontage road to go into downtown, consult google maps for the bus schedule. Great value for money, and tends to still have room when other venues are sold out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded June 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2013</t>
+  </si>
+  <si>
+    <t>While this is not a four star hotel the staff is definitely doing its best to put guests first. The location of this Extended Stay is just off Willowbrook Mall on the other side of highway 249. Rates are very affordable, room was spacious, bathroom clean, free internet worked well. There was even a grab-and-go-breakfast if you walk past the lobby in the morning (cereal bars, apples, oranges, coffee). There are several restaurants nearby. Should you need transportation, there is a public bus stop on the frontage road to go into downtown, consult google maps for the bus schedule. Great value for money, and tends to still have room when other venues are sold out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r161063500-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161063500</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>The hotel experience was great Marlene and Daisy  were good the service was ok and the rooms were better than I originally expected. The pricing is good and the washroom is a bonus. I stayed 5 nights at the hotel and there was enough parking  also the a/c is not monitored and works great . Overall the stay was alright and comfortable .MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>The hotel experience was great Marlene and Daisy  were good the service was ok and the rooms were better than I originally expected. The pricing is good and the washroom is a bonus. I stayed 5 nights at the hotel and there was enough parking  also the a/c is not monitored and works great . Overall the stay was alright and comfortable .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r156320157-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -828,6 +1254,45 @@
     <t>I have been staying in this hotel for about 4 months because of work. The staff is always friendly at check in and the rooms always clean. Diana at the front desk is always helpful with keeping up with my reservations.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r153306491-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153306491</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>I was very pleasantly surprised at how nice this place is. I was expecting a low rent dump, but it was a very pleasant stay. Clean, relatively quiet, and the staff was very attentive and friendly. I saw one review that said there was no security, and I'm sure incidents happen in the parking lots of all hotels, but during my 11 day stay here, I saw security out in the parking lot frequently, plus it is reasonably well lit. All of the rooms open to the INSIDE, which helps with the security of your room. The reception area/office is staffed from 7 am until 11 pm seven days a week, which is much better than some other extended stay places I looked at. The rates are very competitive, especially if you are staying more than a week. If you are only spending one or two nights, then there are many more traditional hotels around that would compete with their price. They provide coffee from 7 until 9:30 each morning, the cleaning staff does a good job... I was impressed and will stay there again when I need an extended stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I was very pleasantly surprised at how nice this place is. I was expecting a low rent dump, but it was a very pleasant stay. Clean, relatively quiet, and the staff was very attentive and friendly. I saw one review that said there was no security, and I'm sure incidents happen in the parking lots of all hotels, but during my 11 day stay here, I saw security out in the parking lot frequently, plus it is reasonably well lit. All of the rooms open to the INSIDE, which helps with the security of your room. The reception area/office is staffed from 7 am until 11 pm seven days a week, which is much better than some other extended stay places I looked at. The rates are very competitive, especially if you are staying more than a week. If you are only spending one or two nights, then there are many more traditional hotels around that would compete with their price. They provide coffee from 7 until 9:30 each morning, the cleaning staff does a good job... I was impressed and will stay there again when I need an extended stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r153046021-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153046021</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Frendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed here for a job interview and needed some items printed off before hand.  They did not have a business center which I thought they should have, but the staff was very helpful and printed all my documents for me free of charge.  The room was clean and quiet and I had a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a job interview and needed some items printed off before hand.  They did not have a business center which I thought they should have, but the staff was very helpful and printed all my documents for me free of charge.  The room was clean and quiet and I had a nice stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r152584255-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -843,9 +1308,6 @@
     <t>It was not a good experience for me.  The first room had visible mold embedded in the curtains &amp; sheet rock damage above the molded curtains.  after complaining to the front desk, I was moved to a second room where I discovered short black curled hairs in the freezer!  It was absolutely discussing.  It was All Star weekend, so the hotel was full.  I went to the store to purchase cleaning supplies, so that I could stay there since no other rooms were available.  Also, the refrigerator was warm &amp; the frost free freezer was frozen w ice?  I finally figured that if I open the freezer door 1/2 way it would cool/freeze my groceries.  Daisy, the front desk clerk was great &amp; she really tried to accommodate me, but bring cleaning supplies!MoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded February 22, 2013</t>
   </si>
   <si>
@@ -906,6 +1368,45 @@
     <t>Great service at check in with Daisy. Daisy was very helpful. She is a very beautiful woman. Bed was very comfortable. Check-in was efficient and fast. I love the grab and go breakfast, I was in a hurry, so it was very convienent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r147765463-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147765463</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>"Great hotel, felt like home"</t>
+  </si>
+  <si>
+    <t>My friend Jovannie recommended that I stay the night at this hotel since I needed a place to stay and I can say it was the best hotel I have ever stayed at. When I walked into the hotel I was treating right away by a friendly lady, she gave great customer service and very helpful. The room was nice, clean and had the home feeling to it. The beds were really comfortable and the restrooms and kitchen were extremely clean. The kitchen came with the basic utensil so you dont need to go out and buy any yourself. It is also located in a great place near restaurants, Willowbrook Mall, AMC24 movie theater, and even a Walmart. You can go shopping and buy everything you need within a short distance. I would love to spend another night in this hotel, so if you are looking for a place to stay in Houston I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded December 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2012</t>
+  </si>
+  <si>
+    <t>My friend Jovannie recommended that I stay the night at this hotel since I needed a place to stay and I can say it was the best hotel I have ever stayed at. When I walked into the hotel I was treating right away by a friendly lady, she gave great customer service and very helpful. The room was nice, clean and had the home feeling to it. The beds were really comfortable and the restrooms and kitchen were extremely clean. The kitchen came with the basic utensil so you dont need to go out and buy any yourself. It is also located in a great place near restaurants, Willowbrook Mall, AMC24 movie theater, and even a Walmart. You can go shopping and buy everything you need within a short distance. I would love to spend another night in this hotel, so if you are looking for a place to stay in Houston I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r147754394-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147754394</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>When I came to this hotel I found everything very nice. The people in the front desk were very friendly and attentive with anything that I would need. The room was a decent size, I loved the fact that there is a fully equipped kitchen &amp; that I don't have to worry about plates or anything since it's already there. In the morning there was coffee and continental breakfast which made it easy for me just to get my food on the go. Thank you for the great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I came to this hotel I found everything very nice. The people in the front desk were very friendly and attentive with anything that I would need. The room was a decent size, I loved the fact that there is a fully equipped kitchen &amp; that I don't have to worry about plates or anything since it's already there. In the morning there was coffee and continental breakfast which made it easy for me just to get my food on the go. Thank you for the great stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r145554594-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1488,54 @@
     <t>this hotel was amazing. The location was very nice because it is by lots of restaurants, AMC movie theater, and the mall which is right across the hotel. it is convenient.Costumer service was very helpful and nice they are very attentive with your needs. I recommend this hotel for anyone that  wants to stay in nice quite  and safe place. I also liked the inside the room, there is a full kitchen which is great, the bed and the television was very nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r143057322-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143057322</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>Stayed for a few nights. Hotel was quiet, staff was great. Rooms have had some renovation. Rooms have full size kitchens which is very convenient. If you are looking to stay in this area, I recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded October 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2012</t>
+  </si>
+  <si>
+    <t>Stayed for a few nights. Hotel was quiet, staff was great. Rooms have had some renovation. Rooms have full size kitchens which is very convenient. If you are looking to stay in this area, I recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r142313894-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142313894</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>RNAQ</t>
+  </si>
+  <si>
+    <t>BEWARE !!!...No security what so ever - no gaurds,no cameras, desk closed at night. Had all 4 wheels and tires stolen from my vehicle parked in front of the hotel!! Was not warned of lack of security and hotel offered no compensation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook - HWY 249, responded to this reviewResponded October 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2012</t>
+  </si>
+  <si>
+    <t>BEWARE !!!...No security what so ever - no gaurds,no cameras, desk closed at night. Had all 4 wheels and tires stolen from my vehicle parked in front of the hotel!! Was not warned of lack of security and hotel offered no compensation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r142011964-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1614,45 @@
     <t>The rooms are clean, carpets not stained, had basic amenities such as the kitchen.... the exhaust though of the kitchen is intresting coz there was no airduct in it. Its just a fan on top of the stove so it just basically scatters the smell around the room. The room walls are not too thick to keep sounds in. So you can hear whatever other people are doin in th other room. And if you stay on the lower levels you could even hear otherguests walking on the room above you.  Either then that. Its livable. I just hopesome visitors would just respect others staying at thehotel and just keep it down at night coz surely it would bother others..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r72989582-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>72989582</t>
+  </si>
+  <si>
+    <t>07/30/2010</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>Helpful staff considering our extremely late check-in.  Room was very clean and great location for shopping and restaurants as well as access to main toll roads and freeways.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r36373660-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>36373660</t>
+  </si>
+  <si>
+    <t>07/31/2009</t>
+  </si>
+  <si>
+    <t>Not the Residence Inn, but I wasn't expecting it to be</t>
+  </si>
+  <si>
+    <t>Without a doubt, you generally DO get what you pay for.  I spent two weeks at this hotel while on a business trip.  My choice was driven by price.  The front desk staff was courteous, and was attentive to my needs.  The room was clean, as were the public areas of the property.  The location is nothing special, and lower prices do sometimes attract people that you might not choose to be your neighbors.  That said, I never feared for my safety, and I never saw any of the "partying" that another reviewer recently claimed.  For what I paid, it was a great stay.  It cost me a fraction of what I would have paid at any other hotel in the area.  For that, I'm grateful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Without a doubt, you generally DO get what you pay for.  I spent two weeks at this hotel while on a business trip.  My choice was driven by price.  The front desk staff was courteous, and was attentive to my needs.  The room was clean, as were the public areas of the property.  The location is nothing special, and lower prices do sometimes attract people that you might not choose to be your neighbors.  That said, I never feared for my safety, and I never saw any of the "partying" that another reviewer recently claimed.  For what I paid, it was a great stay.  It cost me a fraction of what I would have paid at any other hotel in the area.  For that, I'm grateful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107711-r35879815-Extended_Stay_America_Houston_Willowbrook_HWY_249-Houston_Texas.html</t>
   </si>
   <si>
@@ -1078,9 +1666,6 @@
   </si>
   <si>
     <t>Well, you know they say you get what you pay for? This hotel is the definition of ''Cheap"" from the hard beds, to the sloppy housekeeping, to broken washers in laundry room, to the ''types'' they rent to, if you are a business traveler,  go somewhere else,  you will not get any sleep, because the noise at night, especially on weekends, is out of control. The  security  (haha) that you can never find. The manager is clueless, the rest of her staff are teenagers who dont take their jobs seriously.  And for the reputation that Extended Stay Hotels have,  this won totally sucks,  I would give it a negative rate if I could.  I have personally observed people partying in their cars in the parking lot, from smoking pot, and etc,  Same thing in the hallways,  after hours with the 'younger' guests.  Since I am from AZ, my impression is this hotel has a 'party' reputation.  I will say that I am seriously disappointed.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2009</t>
   </si>
   <si>
     <t>Well, you know they say you get what you pay for? This hotel is the definition of ''Cheap"" from the hard beds, to the sloppy housekeeping, to broken washers in laundry room, to the ''types'' they rent to, if you are a business traveler,  go somewhere else,  you will not get any sleep, because the noise at night, especially on weekends, is out of control. The  security  (haha) that you can never find. The manager is clueless, the rest of her staff are teenagers who dont take their jobs seriously.  And for the reputation that Extended Stay Hotels have,  this won totally sucks,  I would give it a negative rate if I could.  I have personally observed people partying in their cars in the parking lot, from smoking pot, and etc,  Same thing in the hallways,  after hours with the 'younger' guests.  Since I am from AZ, my impression is this hotel has a 'party' reputation.  I will say that I am seriously disappointed.More</t>
@@ -1657,7 +2242,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1665,12 +2250,16 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1718,7 +2307,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1779,41 +2368,31 @@
         <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
         <v>74</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1829,7 +2408,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1838,53 +2417,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>82</v>
       </c>
-      <c r="O5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
         <v>84</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -1900,7 +2469,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1909,53 +2478,53 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>89</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
         <v>93</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>94</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1971,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1980,22 +2549,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>99</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>100</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>101</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
@@ -2020,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
         <v>102</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>103</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +2611,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2051,47 +2620,53 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>108</v>
       </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="X8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -2107,7 +2682,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2116,47 +2691,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
       <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
         <v>119</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>120</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -2172,7 +2753,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2181,37 +2762,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>125</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>126</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>110</v>
-      </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2260,27 +2845,41 @@
         <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s">
+        <v>137</v>
+      </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -2296,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2305,39 +2904,53 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -2353,7 +2966,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2362,33 +2975,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2397,10 +3014,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2416,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2425,47 +3046,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2481,7 +3102,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2490,43 +3111,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>161</v>
       </c>
-      <c r="K15" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>164</v>
-      </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2542,7 +3167,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2551,39 +3176,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2599,7 +3234,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2608,53 +3243,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -2670,7 +3295,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2679,45 +3304,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -2733,7 +3352,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2742,43 +3361,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -2794,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2803,53 +3418,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>201</v>
-      </c>
-      <c r="X20" t="s">
-        <v>202</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
@@ -2865,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2874,39 +3475,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>209</v>
-      </c>
-      <c r="X21" t="s">
-        <v>210</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
@@ -2922,7 +3529,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2931,38 +3538,32 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>217</v>
-      </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>3</v>
@@ -2971,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
@@ -2993,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3002,49 +3603,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -3060,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3069,53 +3670,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -3131,7 +3726,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3140,45 +3735,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
@@ -3194,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3203,53 +3796,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>250</v>
-      </c>
-      <c r="X26" t="s">
-        <v>251</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -3265,7 +3844,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3274,53 +3853,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -3336,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3345,49 +3918,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>263</v>
       </c>
-      <c r="J28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K28" t="s">
-        <v>265</v>
-      </c>
-      <c r="L28" t="s">
-        <v>266</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
@@ -3403,7 +3970,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3412,37 +3979,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3452,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
@@ -3474,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3483,38 +4050,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3522,14 +4085,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>284</v>
-      </c>
-      <c r="X30" t="s">
-        <v>285</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -3545,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3554,37 +4113,31 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3593,14 +4146,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
         <v>293</v>
-      </c>
-      <c r="X31" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="32">
@@ -3616,7 +4165,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3625,53 +4174,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
         <v>297</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>298</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>299</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
         <v>300</v>
       </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>301</v>
-      </c>
       <c r="O32" t="s">
-        <v>302</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>303</v>
-      </c>
-      <c r="X32" t="s">
-        <v>304</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -3687,7 +4222,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3696,53 +4231,45 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>311</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>312</v>
-      </c>
-      <c r="X33" t="s">
-        <v>313</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -3758,7 +4285,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3767,37 +4294,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3807,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
@@ -3829,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3838,53 +4365,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>301</v>
-      </c>
-      <c r="O35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
@@ -3900,7 +4413,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3909,43 +4422,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
@@ -3961,7 +4484,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3970,43 +4493,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="s">
-        <v>345</v>
-      </c>
-      <c r="O37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>346</v>
-      </c>
-      <c r="X37" t="s">
-        <v>347</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
@@ -4022,7 +4551,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4031,41 +4560,41 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4073,7 +4602,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
@@ -4089,7 +4618,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4098,49 +4627,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>361</v>
-      </c>
-      <c r="O39" t="s">
-        <v>73</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40">
@@ -4156,7 +4685,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4165,34 +4694,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4204,10 +4733,1794 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
       <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s">
         <v>367</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>374</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>374</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>383</v>
+      </c>
+      <c r="X43" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>391</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>401</v>
+      </c>
+      <c r="X45" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>409</v>
+      </c>
+      <c r="X46" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>417</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s">
+        <v>423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>409</v>
+      </c>
+      <c r="X48" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>430</v>
+      </c>
+      <c r="X49" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s">
+        <v>437</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>438</v>
+      </c>
+      <c r="X50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>446</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>446</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>455</v>
+      </c>
+      <c r="X52" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>458</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>459</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>446</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>455</v>
+      </c>
+      <c r="X53" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>469</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>470</v>
+      </c>
+      <c r="X54" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>478</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>479</v>
+      </c>
+      <c r="X55" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>468</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>487</v>
+      </c>
+      <c r="X56" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>490</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>491</v>
+      </c>
+      <c r="J57" t="s">
+        <v>492</v>
+      </c>
+      <c r="K57" t="s">
+        <v>493</v>
+      </c>
+      <c r="L57" t="s">
+        <v>494</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>495</v>
+      </c>
+      <c r="X57" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>499</v>
+      </c>
+      <c r="J58" t="s">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>501</v>
+      </c>
+      <c r="L58" t="s">
+        <v>502</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>468</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>503</v>
+      </c>
+      <c r="X58" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>506</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>507</v>
+      </c>
+      <c r="J59" t="s">
+        <v>508</v>
+      </c>
+      <c r="K59" t="s">
+        <v>509</v>
+      </c>
+      <c r="L59" t="s">
+        <v>510</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>468</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>511</v>
+      </c>
+      <c r="X59" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+      <c r="J60" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" t="s">
+        <v>517</v>
+      </c>
+      <c r="L60" t="s">
+        <v>518</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>519</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>520</v>
+      </c>
+      <c r="X60" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>529</v>
+      </c>
+      <c r="X61" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>532</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" t="s">
+        <v>535</v>
+      </c>
+      <c r="L62" t="s">
+        <v>536</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>537</v>
+      </c>
+      <c r="O62" t="s">
+        <v>82</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>538</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>539</v>
+      </c>
+      <c r="J63" t="s">
+        <v>540</v>
+      </c>
+      <c r="K63" t="s">
+        <v>541</v>
+      </c>
+      <c r="L63" t="s">
+        <v>542</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>543</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>546</v>
+      </c>
+      <c r="J64" t="s">
+        <v>547</v>
+      </c>
+      <c r="K64" t="s">
+        <v>548</v>
+      </c>
+      <c r="L64" t="s">
+        <v>549</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>543</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>551</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>552</v>
+      </c>
+      <c r="J65" t="s">
+        <v>553</v>
+      </c>
+      <c r="K65" t="s">
+        <v>554</v>
+      </c>
+      <c r="L65" t="s">
+        <v>555</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>556</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37435</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>558</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>559</v>
+      </c>
+      <c r="J66" t="s">
+        <v>560</v>
+      </c>
+      <c r="K66" t="s">
+        <v>561</v>
+      </c>
+      <c r="L66" t="s">
+        <v>562</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
